--- a/sample_1.xlsx
+++ b/sample_1.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="825" windowWidth="19935" windowHeight="7140"/>
+    <workbookView xWindow="-15" yWindow="5490" windowWidth="21375" windowHeight="5550" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="3" r:id="rId1"/>
+    <sheet name="Lint" sheetId="1" r:id="rId2"/>
+    <sheet name="CDC" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
   <si>
     <t>Date</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -100,12 +102,11 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,12 +116,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -145,19 +140,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -172,11 +155,138 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -318,25 +428,48 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -344,16 +477,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格2" displayName="表格2" ref="B3:H21" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="B3:H21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格2" displayName="表格2" ref="A1:F15" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:F15"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Date" dataDxfId="14"/>
+    <tableColumn id="2" name="Item" dataDxfId="13"/>
+    <tableColumn id="4" name="Grant.Wang" dataDxfId="12"/>
+    <tableColumn id="5" name="Taiga" dataDxfId="11"/>
+    <tableColumn id="6" name="Kaitin" dataDxfId="10"/>
+    <tableColumn id="7" name="Hsin-chuan" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表格2_3" displayName="表格2_3" ref="A1:G15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G15"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Date" dataDxfId="8"/>
-    <tableColumn id="2" name="Item" dataDxfId="7"/>
-    <tableColumn id="3" name="Total" dataDxfId="6"/>
-    <tableColumn id="4" name="Grant.Wang" dataDxfId="5"/>
-    <tableColumn id="5" name="Taiga" dataDxfId="4"/>
-    <tableColumn id="6" name="Kaitin" dataDxfId="3"/>
-    <tableColumn id="7" name="Hsin-chuan" dataDxfId="2"/>
+    <tableColumn id="1" name="Date" dataDxfId="6"/>
+    <tableColumn id="2" name="Item" dataDxfId="5"/>
+    <tableColumn id="3" name="Total" dataDxfId="4"/>
+    <tableColumn id="4" name="Grant.Wang" dataDxfId="3"/>
+    <tableColumn id="5" name="Taiga" dataDxfId="2"/>
+    <tableColumn id="6" name="Kaitin" dataDxfId="1"/>
+    <tableColumn id="7" name="Hsin-chuan" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -644,484 +792,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:H21"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="3">
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
         <v>43146</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5">
-        <f>SUM(E4:H4)</f>
-        <v>18</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="C2" s="9">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8">
         <v>12</v>
       </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="3">
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
         <v>43146</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5">
-        <f t="shared" ref="D5:D20" si="0">SUM(E5:H5)</f>
-        <v>18</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
         <v>13</v>
       </c>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="3">
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
         <v>43146</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
         <v>14</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="E4" s="8">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="6">
-        <v>43146</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8">
-        <f>SUM(D4:D6)</f>
-        <v>54</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" ref="E7:H7" si="1">SUM(E4:E6)</f>
-        <v>39</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="1"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5">
+        <v>43144</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5">
+        <v>43144</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5">
+        <v>43144</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5">
+        <v>43144</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5">
+        <v>43143</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5">
+        <v>43143</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5">
+        <v>43143</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6">
         <v>6</v>
       </c>
-      <c r="G7" s="8">
-        <f t="shared" si="1"/>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5">
+        <v>43143</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5">
+        <v>43137</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5">
+        <v>43137</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6">
         <v>6</v>
       </c>
-      <c r="H7" s="8">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="9">
-        <v>43144</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="E14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5">
+        <v>43137</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="10">
-        <v>4</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="9">
-        <v>43144</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E9" s="10">
-        <v>9</v>
-      </c>
-      <c r="F9" s="10">
-        <v>3</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="9">
-        <v>43144</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E10" s="10">
-        <v>10</v>
-      </c>
-      <c r="F10" s="10">
-        <v>2</v>
-      </c>
-      <c r="G10" s="10">
-        <v>2</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="9">
-        <v>43144</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E11" s="10">
-        <v>11</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>3</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="6">
-        <v>43144</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="8">
-        <f>SUM(D8:D11)</f>
-        <v>60</v>
-      </c>
-      <c r="E12" s="8">
-        <f t="shared" ref="E12:H12" si="2">SUM(E8:E11)</f>
-        <v>38</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H12" s="8">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="9">
-        <v>43143</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E13" s="10">
-        <v>4</v>
-      </c>
-      <c r="F13" s="10">
-        <v>4</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="9">
-        <v>43143</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6">
         <v>5</v>
       </c>
-      <c r="F14" s="10">
-        <v>3</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="9">
-        <v>43143</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E15" s="10">
-        <v>6</v>
-      </c>
-      <c r="F15" s="10">
-        <v>2</v>
-      </c>
-      <c r="G15" s="10">
-        <v>2</v>
-      </c>
-      <c r="H15" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="9">
-        <v>43143</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E16" s="10">
-        <v>7</v>
-      </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-      <c r="G16" s="10">
-        <v>3</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="6">
-        <v>43143</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="8">
-        <f>SUM(D13:D16)</f>
-        <v>44</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" ref="E17:H17" si="3">SUM(E13:E16)</f>
-        <v>22</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H17" s="8">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="9">
-        <v>43137</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E18" s="10">
-        <v>1</v>
-      </c>
-      <c r="F18" s="10">
-        <v>7</v>
-      </c>
-      <c r="G18" s="10">
-        <v>3</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="9">
-        <v>43137</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E19" s="10">
-        <v>2</v>
-      </c>
-      <c r="F19" s="10">
-        <v>6</v>
-      </c>
-      <c r="G19" s="10">
-        <v>2</v>
-      </c>
-      <c r="H19" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="9">
-        <v>43137</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E20" s="10">
-        <v>3</v>
-      </c>
-      <c r="F20" s="10">
-        <v>5</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="6">
-        <v>43137</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="8">
-        <f>SUM(D18:D20)</f>
-        <v>33</v>
-      </c>
-      <c r="E21" s="8">
-        <f t="shared" ref="E21:H21" si="4">SUM(E18:E20)</f>
-        <v>6</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="G21" s="8">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="4"/>
-        <v>3</v>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1131,4 +1126,385 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>43146</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4">
+        <f>SUM(D2:G2)</f>
+        <v>18</v>
+      </c>
+      <c r="D2" s="9">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>43146</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <f>SUM(D3:G3)</f>
+        <v>18</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>43146</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
+        <f>SUM(D4:G4)</f>
+        <v>18</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5">
+        <v>43144</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" ref="C5:C15" si="0">SUM(D5:G5)</f>
+        <v>15</v>
+      </c>
+      <c r="D5" s="6">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5">
+        <v>43144</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="6">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5">
+        <v>43144</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5">
+        <v>43144</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5">
+        <v>43143</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5">
+        <v>43143</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5">
+        <v>43143</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5">
+        <v>43143</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D12" s="6">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5">
+        <v>43137</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>7</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5">
+        <v>43137</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>6</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5">
+        <v>43137</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>